--- a/servers_query_automation/query_answers.xlsx
+++ b/servers_query_automation/query_answers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="665">
   <si>
     <t>SERVER NAME</t>
   </si>
@@ -35,8 +35,7 @@
     <t>echo yahm</t>
   </si>
   <si>
-    <t xml:space="preserve">yahm_x000D_
-</t>
+    <t>TIMED OUT - PLEASE MAKE TIMEOUT BIGGER</t>
   </si>
   <si>
     <t>dir \\dc9.ardomnet.co.il\temp\*.*</t>
@@ -54,8 +53,8 @@
 _x000D_
  Directory of D:\projects\ardom-1\servers_query_automation_x000D_
 _x000D_
-12/13/2020  08:22 PM    &lt;DIR&gt;          ._x000D_
-12/13/2020  08:22 PM    &lt;DIR&gt;          .._x000D_
+12/14/2020  04:45 PM    &lt;DIR&gt;          ._x000D_
+12/14/2020  04:45 PM    &lt;DIR&gt;          .._x000D_
 11/25/2020  04:52 PM               464 connect_via_ssh_test.sh_x000D_
 11/25/2020  04:52 PM               697 get_os_type_test.ps1_x000D_
 12/06/2020  09:29 PM             3,839 gui.py_x000D_
@@ -64,9 +63,9 @@
 12/09/2020  05:36 PM           243,041 Process.txt_x000D_
 12/13/2020  08:22 PM             8,671 queries.xlsx_x000D_
 12/06/2020  09:34 PM             9,078 queries_test.xlsx_x000D_
-12/13/2020  08:53 PM            15,826 query_answers.xlsx_x000D_
+12/14/2020  04:44 PM            21,717 query_answers.xlsx_x000D_
 12/13/2020  03:35 PM             7,195 query_automation.py_x000D_
-12/13/2020  08:57 PM            10,052 query_automation_test.py_x000D_
+12/14/2020  04:48 PM            10,135 query_automation_test.py_x000D_
 11/25/2020  05:10 PM               647 query_to_os_db_creator.py_x000D_
 12/04/2020  03:42 PM             8,192 query_to_os_version.db_x000D_
 12/09/2020  10:11 AM                24 requirments.txt_x000D_
@@ -74,14 +73,18 @@
 11/29/2020  06:27 PM             1,257 test.py_x000D_
 11/30/2020  08:14 PM             5,278 test.xlsx_x000D_
 11/29/2020  06:14 PM    &lt;DIR&gt;          __pycache___x000D_
-              17 File(s)        319,469 bytes_x000D_
-               3 Dir(s)  974,580,666,368 bytes free_x000D_
+              17 File(s)        325,443 bytes_x000D_
+               3 Dir(s)  974,580,596,736 bytes free_x000D_
 </t>
   </si>
   <si>
     <t>dc4.ardomnet.co.il</t>
   </si>
   <si>
+    <t xml:space="preserve">yahm_x000D_
+</t>
+  </si>
+  <si>
     <t>dir \\dc4.ardomnet.co.il\temp\*.*</t>
   </si>
   <si>
@@ -109,10 +112,6 @@
     <t>dir \\owa.ardomnet.co.il\temp\*.*</t>
   </si>
   <si>
-    <t xml:space="preserve">The user name or password is incorrect._x000D_
-</t>
-  </si>
-  <si>
     <t>ardom-hub.ardomnet.co.il</t>
   </si>
   <si>
@@ -129,9 +128,6 @@
   </si>
   <si>
     <t>dir \\mx-gateway.ardomnet.co.il\temp\*.*</t>
-  </si>
-  <si>
-    <t>TIMED OUT - PLEASE MAKE TIMEOUT BIGGER</t>
   </si>
   <si>
     <t>ds7.ardomnet.co.il</t>
@@ -2377,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2402,18 +2398,18 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2421,10 +2417,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2432,10 +2428,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2443,10 +2439,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2454,32 +2450,32 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2487,32 +2483,32 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -2520,10 +2516,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -2531,10 +2527,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -2542,10 +2538,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -2553,10 +2549,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -2564,10 +2560,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2575,10 +2571,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -2586,10 +2582,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2597,10 +2593,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2608,10 +2604,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -2619,10 +2615,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -2630,10 +2626,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -2641,10 +2637,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -2652,21 +2648,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -2674,10 +2670,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -2685,10 +2681,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -2696,10 +2692,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -2707,10 +2703,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -2718,10 +2714,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -2729,10 +2725,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -2740,10 +2736,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -2751,10 +2747,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -2762,10 +2758,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2773,10 +2769,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -2784,10 +2780,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -2795,10 +2791,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -2806,10 +2802,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -2817,10 +2813,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -2828,10 +2824,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -2839,10 +2835,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2850,10 +2846,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -2861,10 +2857,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -2872,10 +2868,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -2883,10 +2879,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -2894,10 +2890,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -2905,10 +2901,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -2916,10 +2912,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -2927,10 +2923,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -2938,10 +2934,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -2949,10 +2945,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -2960,10 +2956,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2971,10 +2967,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -2982,10 +2978,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2993,10 +2989,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -3004,10 +3000,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -3015,10 +3011,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -3026,10 +3022,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -3037,10 +3033,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -3048,10 +3044,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -3059,10 +3055,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -3070,10 +3066,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -3081,10 +3077,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -3092,10 +3088,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -3103,10 +3099,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -3114,10 +3110,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -3125,10 +3121,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -3136,10 +3132,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -3147,21 +3143,21 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -3169,21 +3165,21 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -3191,10 +3187,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -3202,12 +3198,34 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
         <v>156</v>
       </c>
-      <c r="B75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3218,7 +3236,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3240,816 +3258,794 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
         <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4118,7 +4114,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -4129,7 +4125,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -4140,7 +4136,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -4151,7 +4147,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -4195,7 +4191,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -4206,7 +4202,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -4217,7 +4213,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -4228,7 +4224,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -4239,7 +4235,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -4250,7 +4246,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -4261,7 +4257,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -4272,7 +4268,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -4283,7 +4279,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -4294,7 +4290,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -4305,7 +4301,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -4316,7 +4312,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -4327,7 +4323,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -4338,7 +4334,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -4349,7 +4345,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -4360,7 +4356,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -4371,7 +4367,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -4382,7 +4378,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -4393,7 +4389,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -4404,7 +4400,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -4415,7 +4411,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -4426,7 +4422,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -4437,7 +4433,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -4448,7 +4444,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -4459,7 +4455,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -4470,7 +4466,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -4481,7 +4477,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -4492,7 +4488,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -4503,7 +4499,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -4514,7 +4510,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -4525,7 +4521,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -4536,7 +4532,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -4547,7 +4543,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -4558,7 +4554,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -4569,7 +4565,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -4580,7 +4576,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -4591,7 +4587,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -4602,7 +4598,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -4613,7 +4609,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -4624,7 +4620,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -4635,7 +4631,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -4646,7 +4642,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -4657,7 +4653,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -4668,7 +4664,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -4679,7 +4675,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -4690,7 +4686,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -4701,7 +4697,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
@@ -4712,7 +4708,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -4723,7 +4719,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -4734,7 +4730,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -4745,7 +4741,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -4756,7 +4752,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -4767,7 +4763,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -4778,7 +4774,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -4789,7 +4785,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -4800,7 +4796,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -4811,7 +4807,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -4822,7 +4818,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -4833,7 +4829,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -4844,7 +4840,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -4855,7 +4851,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -4866,7 +4862,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -4877,7 +4873,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -4888,7 +4884,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -4899,7 +4895,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -4929,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4937,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4945,79 +4941,79 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
         <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5025,519 +5021,519 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
         <v>166</v>
-      </c>
-      <c r="B14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
         <v>208</v>
-      </c>
-      <c r="B54" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" t="s">
         <v>219</v>
-      </c>
-      <c r="B64" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5545,143 +5541,143 @@
         <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" t="s">
         <v>234</v>
-      </c>
-      <c r="B79" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" t="s">
         <v>237</v>
-      </c>
-      <c r="B81" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5689,3685 +5685,3685 @@
         <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" t="s">
         <v>259</v>
-      </c>
-      <c r="B104" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>261</v>
+      </c>
+      <c r="B107" t="s">
         <v>262</v>
-      </c>
-      <c r="B107" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B121" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B130" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B137" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B139" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B142" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B147" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B148" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s">
         <v>304</v>
-      </c>
-      <c r="B151" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B152" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B153" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
+        <v>307</v>
+      </c>
+      <c r="B154" t="s">
         <v>308</v>
-      </c>
-      <c r="B154" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B155" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B156" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B159" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B163" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B167" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B168" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B169" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B170" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B171" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B172" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B174" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B177" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B178" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B180" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B181" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B182" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B183" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B185" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B186" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B187" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B188" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B189" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B190" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B191" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B192" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B193" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B194" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B195" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B196" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B198" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B199" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B200" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B201" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B202" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="B203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B204" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B205" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B206" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B207" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B208" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B211" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B212" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B214" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B215" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B216" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B217" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B218" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
+        <v>365</v>
+      </c>
+      <c r="B220" t="s">
         <v>366</v>
-      </c>
-      <c r="B220" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
+        <v>367</v>
+      </c>
+      <c r="B221" t="s">
         <v>368</v>
-      </c>
-      <c r="B221" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B222" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B223" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B224" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B225" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B226" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B227" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B228" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B229" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B230" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B231" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B232" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B233" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B234" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B235" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B236" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B237" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B238" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B239" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
+        <v>385</v>
+      </c>
+      <c r="B240" t="s">
         <v>386</v>
-      </c>
-      <c r="B240" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B241" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
+        <v>389</v>
+      </c>
+      <c r="B243" t="s">
         <v>390</v>
-      </c>
-      <c r="B243" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B244" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
+        <v>393</v>
+      </c>
+      <c r="B246" t="s">
         <v>394</v>
-      </c>
-      <c r="B246" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B247" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B248" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B249" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B250" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B251" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B253" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B254" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B255" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B256" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B257" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B258" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B259" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B260" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B261" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B262" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B263" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B264" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B265" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B266" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B267" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B268" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B269" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B270" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B271" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B272" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B273" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B274" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B275" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B276" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B277" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B278" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B279" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B280" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B281" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B282" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B283" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B284" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B285" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B286" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
+        <v>432</v>
+      </c>
+      <c r="B287" t="s">
         <v>433</v>
-      </c>
-      <c r="B287" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B288" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B289" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
+        <v>436</v>
+      </c>
+      <c r="B290" t="s">
         <v>437</v>
-      </c>
-      <c r="B290" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B291" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B292" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B293" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B294" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B295" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B296" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B297" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B298" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B299" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B300" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B301" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B302" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B303" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B304" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B305" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B306" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B307" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B308" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B309" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B310" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B311" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B312" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B313" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B314" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B315" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B316" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B317" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B318" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B319" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
+        <v>451</v>
+      </c>
+      <c r="B320" t="s">
         <v>452</v>
-      </c>
-      <c r="B320" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B321" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B322" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B323" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B324" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B325" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B326" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B327" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B328" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B329" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B330" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B331" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B332" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B333" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B334" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B335" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B336" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B337" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B338" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B339" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B340" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B341" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B342" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B343" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B344" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B345" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B346" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B347" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B348" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B349" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B350" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B351" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B352" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B353" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B354" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B355" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B356" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B357" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B358" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B359" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B360" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B361" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B362" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B363" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B364" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B365" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B366" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B367" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B368" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B369" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B370" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B371" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B372" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B373" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B374" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B375" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B376" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B377" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B378" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B379" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B380" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B381" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B382" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
+        <v>508</v>
+      </c>
+      <c r="B383" t="s">
         <v>509</v>
-      </c>
-      <c r="B383" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B384" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B385" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B386" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B387" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B388" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B389" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B390" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B391" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B392" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B393" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B395" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B396" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B397" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B398" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B399" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B400" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B401" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B402" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B403" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B404" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B405" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B406" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B408" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B409" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B410" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B411" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B412" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B413" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B414" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B415" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B416" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B417" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
+        <v>535</v>
+      </c>
+      <c r="B418" t="s">
         <v>536</v>
-      </c>
-      <c r="B418" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B419" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B420" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B421" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B422" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B423" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B424" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B425" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B426" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B427" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B428" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B430" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B431" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B433" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B434" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B435" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B436" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B437" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B438" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B439" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B440" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B441" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B442" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B443" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B444" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B445" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B446" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B447" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B448" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B449" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B450" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B451" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B452" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B453" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B454" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B455" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
+        <v>571</v>
+      </c>
+      <c r="B456" t="s">
         <v>572</v>
-      </c>
-      <c r="B456" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B457" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B458" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B459" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B460" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B461" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B462" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B463" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B464" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B465" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B466" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B467" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B468" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B469" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B470" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B471" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B472" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B473" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B474" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B475" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B476" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B477" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B478" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B479" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B480" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B481" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B482" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B483" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B484" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B485" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B486" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B487" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B488" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B489" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B490" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B491" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B492" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B493" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B494" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B495" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B496" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B497" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B498" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B499" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B500" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B501" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B502" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B503" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B504" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B505" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B506" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B507" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B508" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B509" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B510" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B511" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B512" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B513" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B514" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B515" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B516" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B517" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B518" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B519" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B520" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B521" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B522" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B523" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B524" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B525" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B526" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B527" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B528" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B529" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B530" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B531" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B532" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B533" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B534" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B535" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B536" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B537" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B538" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B539" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B540" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B541" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B542" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
+        <v>648</v>
+      </c>
+      <c r="B543" t="s">
         <v>649</v>
-      </c>
-      <c r="B543" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B544" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B545" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B546" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B547" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B548" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B549" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B550" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B551" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B552" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B553" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B554" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B555" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B556" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B557" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B558" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/query_answers.xlsx
+++ b/servers_query_automation/query_answers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="667">
   <si>
     <t>SERVER NAME</t>
   </si>
@@ -35,7 +35,8 @@
     <t>echo yahm</t>
   </si>
   <si>
-    <t>TIMED OUT - PLEASE MAKE TIMEOUT BIGGER</t>
+    <t xml:space="preserve">yahm_x000D_
+</t>
   </si>
   <si>
     <t>dir \\dc9.ardomnet.co.il\temp\*.*</t>
@@ -45,44 +46,24 @@
 </t>
   </si>
   <si>
-    <t>dir</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Volume in drive D is DATA_x000D_
- Volume Serial Number is 3458-EAF7_x000D_
-_x000D_
- Directory of D:\projects\ardom-1\servers_query_automation_x000D_
-_x000D_
-12/14/2020  04:45 PM    &lt;DIR&gt;          ._x000D_
-12/14/2020  04:45 PM    &lt;DIR&gt;          .._x000D_
-11/25/2020  04:52 PM               464 connect_via_ssh_test.sh_x000D_
-11/25/2020  04:52 PM               697 get_os_type_test.ps1_x000D_
-12/06/2020  09:29 PM             3,839 gui.py_x000D_
-12/06/2020  09:37 PM             3,896 gui_test.py_x000D_
-11/25/2020  04:52 PM               706 main_test.py_x000D_
-12/09/2020  05:36 PM           243,041 Process.txt_x000D_
-12/13/2020  08:22 PM             8,671 queries.xlsx_x000D_
-12/06/2020  09:34 PM             9,078 queries_test.xlsx_x000D_
-12/14/2020  04:44 PM            21,717 query_answers.xlsx_x000D_
-12/13/2020  03:35 PM             7,195 query_automation.py_x000D_
-12/14/2020  04:48 PM            10,135 query_automation_test.py_x000D_
-11/25/2020  05:10 PM               647 query_to_os_db_creator.py_x000D_
-12/04/2020  03:42 PM             8,192 query_to_os_version.db_x000D_
-12/09/2020  10:11 AM                24 requirments.txt_x000D_
-11/25/2020  04:58 PM               606 ssh_test.py_x000D_
-11/29/2020  06:27 PM             1,257 test.py_x000D_
-11/30/2020  08:14 PM             5,278 test.xlsx_x000D_
-11/29/2020  06:14 PM    &lt;DIR&gt;          __pycache___x000D_
-              17 File(s)        325,443 bytes_x000D_
-               3 Dir(s)  974,580,596,736 bytes free_x000D_
+    <t>echo test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_x000D_
 </t>
   </si>
   <si>
+    <t>echo test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test2_x000D_
+</t>
+  </si>
+  <si>
     <t>dc4.ardomnet.co.il</t>
   </si>
   <si>
-    <t xml:space="preserve">yahm_x000D_
-</t>
+    <t>TIMED OUT - PLEASE MAKE TIMEOUT BIGGER</t>
   </si>
   <si>
     <t>dir \\dc4.ardomnet.co.il\temp\*.*</t>
@@ -2373,7 +2354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2398,29 +2379,29 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2428,10 +2409,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2439,10 +2420,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2450,10 +2431,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2461,21 +2442,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2483,10 +2464,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2494,21 +2475,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -2516,10 +2497,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -2527,10 +2508,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -2538,10 +2519,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -2549,10 +2530,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -2560,10 +2541,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2571,10 +2552,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -2582,10 +2563,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2593,10 +2574,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2604,10 +2585,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -2615,10 +2596,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -2626,10 +2607,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -2637,10 +2618,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -2648,21 +2629,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -2670,10 +2651,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -2681,10 +2662,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -2692,21 +2673,21 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -2714,10 +2695,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -2725,10 +2706,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -2736,10 +2717,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -2747,10 +2728,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -2758,10 +2739,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2769,10 +2750,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -2780,10 +2761,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -2791,10 +2772,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -2802,10 +2783,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -2813,10 +2794,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -2824,10 +2805,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -2835,10 +2816,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2846,10 +2827,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -2857,10 +2838,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -2868,10 +2849,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -2879,10 +2860,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -2890,10 +2871,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -2901,10 +2882,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -2912,10 +2893,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -2923,10 +2904,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -2934,10 +2915,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -2945,10 +2926,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -2956,10 +2937,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2967,10 +2948,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -2978,10 +2959,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2989,10 +2970,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -3000,10 +2981,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -3011,10 +2992,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -3022,10 +3003,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -3033,10 +3014,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -3044,10 +3025,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -3055,10 +3036,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -3066,10 +3047,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -3077,10 +3058,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -3088,10 +3069,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -3099,10 +3080,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -3110,10 +3091,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -3121,10 +3102,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -3132,10 +3113,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -3143,10 +3124,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -3154,32 +3135,32 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -3187,10 +3168,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -3198,10 +3179,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -3209,23 +3190,12 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3236,13 +3206,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10001" width="50.7109375" customWidth="1"/>
+    <col min="1" max="11" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3258,794 +3228,1619 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>131</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>135</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>147</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>149</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>153</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4055,15 +4850,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10001" width="50.7109375" customWidth="1"/>
+    <col min="1" max="11" width="50.7109375" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4076,7 +4883,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10001" width="50.7109375" customWidth="1"/>
+    <col min="1" max="11" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4095,813 +4902,813 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4933,4437 +5740,4437 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
         <v>162</v>
-      </c>
-      <c r="B9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B94" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B101" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B102" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B105" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B108" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B109" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B110" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B115" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B117" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B125" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B128" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B135" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B137" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B138" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B139" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B144" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B145" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B147" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B148" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B151" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B152" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" t="s">
         <v>306</v>
-      </c>
-      <c r="B153" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B155" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B156" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B159" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B160" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B163" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B164" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B167" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B168" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B169" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B170" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B171" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B174" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B176" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B177" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B178" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B179" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B180" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B181" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B182" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B183" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B184" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B185" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B186" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B187" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B188" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B189" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B190" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B192" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B193" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B194" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B195" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B196" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B197" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B198" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B201" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="B203" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B204" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B205" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B206" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B207" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B208" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B209" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B210" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B211" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B212" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B213" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B214" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B215" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B216" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B217" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B218" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B219" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B220" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B221" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B222" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B223" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B224" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B225" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B226" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B227" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B228" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B229" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B230" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B231" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B232" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B234" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B235" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B236" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B237" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B238" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B239" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B240" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B241" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B242" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B243" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B244" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B245" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B246" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B248" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B249" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B250" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B253" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B254" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B256" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B257" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B258" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B259" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B260" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B261" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B262" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B263" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B264" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B265" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B266" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B267" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B268" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B269" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B270" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B271" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B272" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B273" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B274" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B275" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B276" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B277" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B278" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B279" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B280" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B281" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B282" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B283" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B284" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B285" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B286" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B287" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B288" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B289" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B290" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B291" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B292" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B293" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B294" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B295" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B296" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B297" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B298" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B299" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B300" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B301" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B302" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B303" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B304" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B305" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B306" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B307" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B308" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B309" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B310" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B311" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B312" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B313" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B314" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B315" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B316" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B317" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B318" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B319" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B320" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B321" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B322" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B323" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B324" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B325" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B326" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B327" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B328" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B329" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B330" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B331" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B332" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B333" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B334" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B335" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B336" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B337" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B338" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B339" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B340" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B341" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B342" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B343" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B344" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B345" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B346" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B347" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B348" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B349" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B350" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B351" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B352" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B353" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B354" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B355" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B356" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B357" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B358" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B359" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B360" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B361" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B362" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B363" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B364" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B365" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B366" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B367" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B368" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B369" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B370" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B371" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B372" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B373" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B374" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B375" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B376" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B377" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B378" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B379" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B380" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B381" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B382" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B383" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B384" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B385" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B386" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B387" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B388" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B389" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B390" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B391" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B392" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B393" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B395" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B396" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B397" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B398" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B399" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B400" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B401" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B402" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B403" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B404" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B405" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B406" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B408" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B409" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B410" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B411" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B412" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B413" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B414" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B415" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B416" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B417" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B418" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B419" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B420" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B421" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B422" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B423" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B424" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B425" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B426" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B427" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B428" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B430" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B431" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B433" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B434" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B435" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B436" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B437" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B438" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B439" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B440" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B441" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B442" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B443" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B444" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B445" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B446" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B447" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B448" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B449" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B450" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B451" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B452" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B453" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B454" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B455" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B456" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B457" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B458" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B459" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B460" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B461" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B462" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B463" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B464" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B465" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B466" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B467" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B468" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B469" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B470" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B471" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B472" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B473" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B474" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B475" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B476" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B477" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B478" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B479" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B480" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B481" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B482" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B483" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B484" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B485" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B486" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B487" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B488" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B489" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B490" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B491" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B492" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B493" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B494" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B495" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B496" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B497" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B498" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B499" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B500" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B501" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B502" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B503" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B504" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B505" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B506" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B507" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B508" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B509" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B510" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B511" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B512" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B513" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B514" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B515" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B516" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B517" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B518" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B519" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B520" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B521" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B522" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B523" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B524" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B525" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B526" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B527" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B528" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B529" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B530" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B531" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B532" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B533" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B534" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B535" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B536" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B537" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B538" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B539" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B540" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B541" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B542" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B543" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B544" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B545" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B546" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B547" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B548" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B549" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B550" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B551" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B552" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B553" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B554" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B555" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B556" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B557" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B558" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/servers_query_automation/query_answers.xlsx
+++ b/servers_query_automation/query_answers.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="668">
   <si>
     <t>SERVER NAME</t>
   </si>
@@ -33,64 +33,68 @@
   </si>
   <si>
     <t>echo yahm</t>
+  </si>
+  <si>
+    <t>TIMED OUT - PLEASE MAKE TIMEOUT BIGGER</t>
+  </si>
+  <si>
+    <t>dir \\dc9.ardomnet.co.il\temp\*.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The network path was not found._x000D_
+</t>
+  </si>
+  <si>
+    <t>echo test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test_x000D_
+</t>
+  </si>
+  <si>
+    <t>echo test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test2_x000D_
+</t>
+  </si>
+  <si>
+    <t>dc4.ardomnet.co.il</t>
   </si>
   <si>
     <t xml:space="preserve">yahm_x000D_
 </t>
   </si>
   <si>
-    <t>dir \\dc9.ardomnet.co.il\temp\*.*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The network path was not found._x000D_
+    <t>dir \\dc4.ardomnet.co.il\temp\*.*</t>
+  </si>
+  <si>
+    <t>Sasson-MB2PST.ardomnet.co.il</t>
+  </si>
+  <si>
+    <t>dir \\Sasson-MB2PST.ardomnet.co.il\temp\*.*</t>
+  </si>
+  <si>
+    <t>DC29.ardomnet.co.il</t>
+  </si>
+  <si>
+    <t>dir \\DC29.ardomnet.co.il\temp\*.*</t>
+  </si>
+  <si>
+    <t>ERDE-TS.ardomnet.co.il</t>
+  </si>
+  <si>
+    <t>dir \\ERDE-TS.ardomnet.co.il\temp\*.*</t>
+  </si>
+  <si>
+    <t>owa.ardomnet.co.il</t>
+  </si>
+  <si>
+    <t>dir \\owa.ardomnet.co.il\temp\*.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user name or password is incorrect._x000D_
 </t>
-  </si>
-  <si>
-    <t>echo test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_x000D_
-</t>
-  </si>
-  <si>
-    <t>echo test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2_x000D_
-</t>
-  </si>
-  <si>
-    <t>dc4.ardomnet.co.il</t>
-  </si>
-  <si>
-    <t>TIMED OUT - PLEASE MAKE TIMEOUT BIGGER</t>
-  </si>
-  <si>
-    <t>dir \\dc4.ardomnet.co.il\temp\*.*</t>
-  </si>
-  <si>
-    <t>Sasson-MB2PST.ardomnet.co.il</t>
-  </si>
-  <si>
-    <t>dir \\Sasson-MB2PST.ardomnet.co.il\temp\*.*</t>
-  </si>
-  <si>
-    <t>DC29.ardomnet.co.il</t>
-  </si>
-  <si>
-    <t>dir \\DC29.ardomnet.co.il\temp\*.*</t>
-  </si>
-  <si>
-    <t>ERDE-TS.ardomnet.co.il</t>
-  </si>
-  <si>
-    <t>dir \\ERDE-TS.ardomnet.co.il\temp\*.*</t>
-  </si>
-  <si>
-    <t>owa.ardomnet.co.il</t>
-  </si>
-  <si>
-    <t>dir \\owa.ardomnet.co.il\temp\*.*</t>
   </si>
   <si>
     <t>ardom-hub.ardomnet.co.il</t>
@@ -2379,21 +2383,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2448,15 +2452,15 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2464,10 +2468,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2475,21 +2479,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -2497,10 +2501,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -2508,10 +2512,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -2519,10 +2523,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -2530,10 +2534,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -2541,10 +2545,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -2552,10 +2556,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -2563,10 +2567,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2574,10 +2578,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -2585,10 +2589,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -2596,10 +2600,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -2607,10 +2611,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -2618,43 +2622,43 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -2662,10 +2666,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -2673,21 +2677,21 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -2695,10 +2699,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -2706,10 +2710,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -2717,10 +2721,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -2728,10 +2732,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -2739,10 +2743,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -2750,10 +2754,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -2761,10 +2765,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -2772,10 +2776,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -2783,10 +2787,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -2794,10 +2798,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -2805,21 +2809,21 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -2827,43 +2831,43 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -2871,10 +2875,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -2882,10 +2886,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -2893,10 +2897,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -2904,10 +2908,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -2915,10 +2919,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -2926,10 +2930,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -2937,10 +2941,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -2948,10 +2952,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -2959,10 +2963,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -2970,10 +2974,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -2981,10 +2985,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -2992,10 +2996,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -3003,10 +3007,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -3014,10 +3018,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -3025,10 +3029,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -3036,10 +3040,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -3047,10 +3051,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -3058,10 +3062,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -3069,10 +3073,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -3080,10 +3084,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -3091,10 +3095,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -3102,10 +3106,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -3113,10 +3117,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -3124,10 +3128,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -3135,21 +3139,21 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B72" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -3157,10 +3161,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -3168,10 +3172,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
@@ -3179,10 +3183,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -3190,10 +3194,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
@@ -3231,21 +3235,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3267,7 +3271,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3289,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3311,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3333,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3349,18 +3353,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -3371,18 +3375,18 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -3393,18 +3397,18 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -3415,18 +3419,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -3437,18 +3441,18 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -3459,18 +3463,18 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -3481,18 +3485,18 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -3503,18 +3507,18 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -3525,18 +3529,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -3547,18 +3551,18 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -3569,18 +3573,18 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -3591,18 +3595,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -3613,18 +3617,18 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -3635,18 +3639,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -3657,18 +3661,18 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -3679,18 +3683,18 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -3701,18 +3705,18 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -3723,18 +3727,18 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -3745,18 +3749,18 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -3767,18 +3771,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -3789,18 +3793,18 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -3811,18 +3815,18 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
         <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -3833,18 +3837,18 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" t="s">
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
@@ -3855,18 +3859,18 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -3877,18 +3881,18 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -3899,18 +3903,18 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -3921,18 +3925,18 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -3943,18 +3947,18 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -3965,18 +3969,18 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -3987,18 +3991,18 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -4009,18 +4013,18 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -4031,18 +4035,18 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -4053,18 +4057,18 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -4075,18 +4079,18 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -4097,18 +4101,18 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -4119,18 +4123,18 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -4141,18 +4145,18 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -4163,18 +4167,18 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -4185,18 +4189,18 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
@@ -4207,18 +4211,18 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -4229,18 +4233,18 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -4251,18 +4255,18 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
         <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
@@ -4273,18 +4277,18 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
@@ -4295,18 +4299,18 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -4317,18 +4321,18 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -4339,18 +4343,18 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -4361,18 +4365,18 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -4383,18 +4387,18 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -4405,18 +4409,18 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -4427,18 +4431,18 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -4449,18 +4453,18 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -4471,18 +4475,18 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -4493,18 +4497,18 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -4515,18 +4519,18 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -4537,18 +4541,18 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -4559,18 +4563,18 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -4581,18 +4585,18 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -4603,18 +4607,18 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -4625,18 +4629,18 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -4647,18 +4651,18 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -4669,18 +4673,18 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -4691,18 +4695,18 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -4713,18 +4717,18 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -4735,18 +4739,18 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -4757,18 +4761,18 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -4779,18 +4783,18 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -4801,18 +4805,18 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -4823,18 +4827,18 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -4965,7 +4969,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -4976,7 +4980,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -4987,7 +4991,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -4998,7 +5002,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -5009,7 +5013,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -5020,7 +5024,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -5031,7 +5035,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -5042,7 +5046,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -5053,7 +5057,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -5064,7 +5068,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -5075,7 +5079,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -5086,7 +5090,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -5097,7 +5101,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -5108,7 +5112,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -5119,7 +5123,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -5130,7 +5134,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -5141,7 +5145,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -5152,7 +5156,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -5163,7 +5167,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -5174,7 +5178,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -5185,7 +5189,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -5196,7 +5200,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -5207,7 +5211,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -5218,7 +5222,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -5229,7 +5233,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -5240,7 +5244,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -5251,7 +5255,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -5262,7 +5266,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -5273,7 +5277,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -5284,7 +5288,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -5295,7 +5299,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -5306,7 +5310,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -5317,7 +5321,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -5328,7 +5332,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -5339,7 +5343,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -5350,7 +5354,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -5361,7 +5365,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -5372,7 +5376,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -5383,7 +5387,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -5394,7 +5398,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -5405,7 +5409,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -5416,7 +5420,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -5427,7 +5431,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -5438,7 +5442,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -5449,7 +5453,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -5460,7 +5464,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -5471,7 +5475,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -5482,7 +5486,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -5493,7 +5497,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -5504,7 +5508,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -5515,7 +5519,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -5526,7 +5530,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -5537,7 +5541,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -5548,7 +5552,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -5559,7 +5563,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -5570,7 +5574,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -5581,7 +5585,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -5592,7 +5596,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -5603,7 +5607,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -5614,7 +5618,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -5625,7 +5629,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -5636,7 +5640,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -5647,7 +5651,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -5658,7 +5662,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -5669,7 +5673,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -5680,7 +5684,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -5691,7 +5695,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -5702,7 +5706,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -5732,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5740,7 +5744,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5748,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5756,7 +5760,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5764,7 +5768,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5772,47 +5776,47 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
         <v>163</v>
-      </c>
-      <c r="B8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5820,4357 +5824,4357 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B83" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B103" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B104" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B109" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B111" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B113" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B128" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B130" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B136" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B137" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B139" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B147" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B148" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B150" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B151" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B152" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B155" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B160" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B161" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B163" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B164" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B167" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B169" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B170" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B171" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B172" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B174" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B176" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B178" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B179" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B180" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B181" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B182" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B183" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B185" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B186" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B187" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B188" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B189" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B190" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B191" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B192" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B193" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B194" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B195" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B196" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B197" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B198" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B199" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B200" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B201" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B202" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="B203" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B204" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B205" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B206" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B207" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B208" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B209" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B210" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B211" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B212" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B213" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B214" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B215" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B216" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B218" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B219" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B220" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B221" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B222" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B223" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B224" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B225" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B226" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B227" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B228" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B229" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B230" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B231" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B233" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B234" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B235" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B236" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B237" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B238" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B239" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B240" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B241" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B242" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B243" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
+        <v>394</v>
+      </c>
+      <c r="B244" t="s">
         <v>393</v>
-      </c>
-      <c r="B244" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B245" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B246" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B247" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B248" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B249" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B250" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B251" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B253" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B254" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B256" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B258" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B259" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B260" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B261" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B262" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B263" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B264" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B265" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B266" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B267" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B268" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B269" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B270" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B271" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B272" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B273" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B274" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B275" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B276" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B277" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B278" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B279" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B280" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B281" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B282" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B283" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B284" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B285" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B286" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B287" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B288" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B289" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B290" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B291" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B292" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B293" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B294" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B295" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B296" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B297" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B298" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B299" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B300" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B301" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B302" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B303" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B304" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B305" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B306" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B307" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B308" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B309" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B310" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B311" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B312" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B313" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B314" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B315" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B316" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B317" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B318" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B319" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B320" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
+        <v>456</v>
+      </c>
+      <c r="B321" t="s">
         <v>455</v>
-      </c>
-      <c r="B321" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B322" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B323" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B324" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B325" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B326" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B327" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B328" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B329" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B330" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B331" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B332" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B333" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B334" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B335" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B336" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B337" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B338" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B339" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B340" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B341" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B342" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B343" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B344" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B345" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B346" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B347" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B348" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B349" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B350" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B351" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B352" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B353" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B354" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B355" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B356" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B357" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B358" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B359" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B360" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B361" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B362" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B363" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B364" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B365" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B366" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B367" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B368" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B369" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B370" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B371" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B372" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B373" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B374" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B375" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B376" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B377" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B378" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B379" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B380" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B381" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B382" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B383" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B384" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B385" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B386" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B387" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B388" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B389" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B390" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B391" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B392" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B393" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B395" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B396" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B397" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B398" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B399" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B400" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B401" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B402" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B403" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B404" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B405" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B406" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B408" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B409" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B410" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B411" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B412" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B413" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B414" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B415" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B416" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B417" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B418" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B419" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B420" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B421" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B422" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B423" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B424" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B425" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B426" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B427" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B428" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B430" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B431" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B433" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B434" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B435" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B436" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B437" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B438" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B439" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B440" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B441" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B442" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B443" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B444" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B445" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B446" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B447" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B448" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B449" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B450" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B451" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B452" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B453" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B454" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B455" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B456" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B457" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B458" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B459" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B460" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B461" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B462" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B463" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B464" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B465" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B466" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B467" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B468" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B469" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B470" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B471" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B472" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B473" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B474" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B475" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B476" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B477" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B478" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B479" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B480" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B481" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B482" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B483" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B484" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B485" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B486" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B487" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B488" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B489" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B490" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B491" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B492" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B493" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B494" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B495" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B496" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B497" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B498" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B499" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B500" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B501" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B502" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B503" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B504" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B505" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B506" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B507" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B508" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B509" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B510" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B511" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B512" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B513" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B514" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B515" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B516" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B517" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B518" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B519" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B520" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B521" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B522" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B523" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B524" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B525" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B526" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B527" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B528" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B529" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B530" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B531" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B532" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B533" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B534" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B535" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B536" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B537" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B538" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B539" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B540" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B541" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B542" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B543" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B544" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B545" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B546" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B547" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B548" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B549" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B550" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B551" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B552" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B553" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B554" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B555" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B556" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B557" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B558" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
